--- a/biology/Botanique/Séneçon_doronic/Séneçon_doronic.xlsx
+++ b/biology/Botanique/Séneçon_doronic/Séneçon_doronic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9ne%C3%A7on_doronic</t>
+          <t>Séneçon_doronic</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Senecio doronicum
 Le Séneçon doronic (Senecio doronicum) est une espèce de plantes herbacées vivaces de 25-60 cm de la famille des Asteraceae et du genre Senecio.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9ne%C3%A7on_doronic</t>
+          <t>Séneçon_doronic</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom « séneçon » dérive du latin « senex, senecio » qui signifie « vieillard ». Cela évoque les aigrettes blanches, souvent duveteuses, surmontant les akènes que produisent certains séneçons.
 « Doronic » tirerait son nom de l'arabe dorogini : plante vénéneuse indéterminée.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9ne%C3%A7on_doronic</t>
+          <t>Séneçon_doronic</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Identification rapide</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Toute la plante est inodore
 Sa tige est dressée et peu feuillée.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S%C3%A9ne%C3%A7on_doronic</t>
+          <t>Séneçon_doronic</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Séneçon doronic peut être confondu avec Arnica montana. Cette astéracée peut pousser dans le même biotope que Senecio doronicum, mais ses feuilles sont opposées et beaucoup moins coriaces. De plus l'arnica dégage une odeur très particulière.
 Confusion possible avec les espèces du genre Doronicum comme Doronicum pardalianches, dont les bractées sont disposées sur 2 ou 3 rangs ou Doronicum grandiflorum.
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S%C3%A9ne%C3%A7on_doronic</t>
+          <t>Séneçon_doronic</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Identification poussée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>souche épaisse et non rampante
 tige dressée, avec ou sans poils, peu feuillées, plus ou moins anguleuse vers le haut
